--- a/relationalDB.xlsx
+++ b/relationalDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>ART OF STYLE</t>
   </si>
@@ -76,13 +76,13 @@
     <t>TRANSACTION</t>
   </si>
   <si>
+    <t>id_store</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>id_product</t>
-  </si>
-  <si>
-    <t>id_store</t>
   </si>
   <si>
     <t>id_owners</t>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -147,48 +147,131 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,92 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,25 +300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,85 +420,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,67 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +509,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -520,6 +544,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,52 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,9 +598,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,148 +611,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,15 +899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -916,12 +916,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1886585" y="3686175"/>
-          <a:ext cx="4914265" cy="505460"/>
+          <a:off x="1857375" y="2647950"/>
+          <a:ext cx="1914525" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 6708"/>
+            <a:gd name="adj1" fmla="val 133598"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="22225">
@@ -1264,7 +1264,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1409,7 +1409,9 @@
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="I16" s="5" t="s">
@@ -1418,7 +1420,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
@@ -1447,12 +1449,12 @@
     </row>
     <row r="21" spans="9:9">
       <c r="I21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="9:9">
